--- a/generated_data/transformed_data.xlsx
+++ b/generated_data/transformed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihoonwoo/Documents/git_repositories/Soda_lab/public_insights/DATA/Commuting-Distance-by-Personal-Characteristics/generated_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAF26BE-49F6-8A4C-9784-848FECCF8C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49538D65-5099-2742-93DF-BFF4D28334DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1360" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,86 @@
   </si>
   <si>
     <r>
+      <t>3,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Normal-italic"/>
+      </rPr>
+      <t>𝑜𝑟𝑚𝑜𝑟𝑒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Main"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3,000ormore(156,000 or more)</t>
+    </r>
+  </si>
+  <si>
+    <t>Not stated</t>
+  </si>
+  <si>
+    <t>Weekly Income (INCP)</t>
+  </si>
+  <si>
+    <t>Postgraduate Degree Level</t>
+  </si>
+  <si>
+    <t>Graduate Diploma and Graduate Certificate Level</t>
+  </si>
+  <si>
+    <t>Bachelor Degree Level</t>
+  </si>
+  <si>
+    <t>Advanced Diploma and Diploma Level</t>
+  </si>
+  <si>
+    <t>Certificate III &amp; IV Level</t>
+  </si>
+  <si>
+    <t>Secondary Education - Years 10 and above</t>
+  </si>
+  <si>
+    <t>Certificate I &amp; II Level</t>
+  </si>
+  <si>
+    <t>Secondary Education - Years 9 and below</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Level of Highest Educational Attainment (HEAP)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1−149 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="STIXMathJax_Main"/>
+      </rPr>
       <t>1−</t>
     </r>
     <r>
@@ -213,7 +293,18 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>1−149 (</t>
+      <t>1−7,799)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>150−299 (</t>
     </r>
     <r>
       <rPr>
@@ -221,30 +312,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>1−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1−7,799)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>150−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>150−299 (</t>
+      <t>7,800−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>7,800−15,599)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>300−399 (</t>
     </r>
     <r>
       <rPr>
@@ -252,30 +340,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>7,800−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>7,800−15,599)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>300−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>300−399 (</t>
+      <t>15,600−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>15,600−20,799)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>400−499 (</t>
     </r>
     <r>
       <rPr>
@@ -283,30 +368,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>15,600−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>15,600−20,799)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>400−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>400−499 (</t>
+      <t>20,800−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>20,800−25,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>500−649 (</t>
     </r>
     <r>
       <rPr>
@@ -314,30 +396,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>20,800−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>20,800−25,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>500−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>500−649 (</t>
+      <t>26,000−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>26,000−33,799)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>650−799 (</t>
     </r>
     <r>
       <rPr>
@@ -345,30 +424,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>26,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>26,000−33,799)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>650−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>650−799 (</t>
+      <t>33,800−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>33,800−41,599)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>800−999 (</t>
     </r>
     <r>
       <rPr>
@@ -376,30 +452,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>33,800−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>33,800−41,599)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>800−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>800−999 (</t>
+      <t>41,600−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>41,600−51,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,000−1,249 (</t>
     </r>
     <r>
       <rPr>
@@ -407,30 +480,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>41,600−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>41,600−51,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,000−1,249 (</t>
+      <t>52,000−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>52,000−64,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,250−1,499 (</t>
     </r>
     <r>
       <rPr>
@@ -438,30 +508,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>52,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>52,000−64,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,250−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,250−1,499 (</t>
+      <t>65,000−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>65,000−77,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,500−1,749 (</t>
     </r>
     <r>
       <rPr>
@@ -469,30 +536,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>65,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>65,000−77,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,500−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,500−1,749 (</t>
+      <t>78,000−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>78,000−90,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,750−1,999 (</t>
     </r>
     <r>
       <rPr>
@@ -500,30 +564,27 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>78,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>78,000−90,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1,750−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1,750−1,999 (</t>
+      <t>91,000−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>91,000−103,999)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,000−2,999 (</t>
     </r>
     <r>
       <rPr>
@@ -531,37 +592,6 @@
         <color rgb="FF000000"/>
         <rFont val="STIXMathJax_Main"/>
       </rPr>
-      <t>91,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>91,000−103,999)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2,000−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2,000−2,999 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="STIXMathJax_Main"/>
-      </rPr>
       <t>104,000−</t>
     </r>
     <r>
@@ -573,79 +603,13 @@
       </rPr>
       <t>104,000−155,999)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>3,000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="STIXMathJax_Normal-italic"/>
-      </rPr>
-      <t>𝑜𝑟𝑚𝑜𝑟𝑒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="STIXMathJax_Main"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3,000ormore(156,000 or more)</t>
-    </r>
-  </si>
-  <si>
-    <t>Not stated</t>
-  </si>
-  <si>
-    <t>Weekly Income (INCP)</t>
-  </si>
-  <si>
-    <t>Postgraduate Degree Level</t>
-  </si>
-  <si>
-    <t>Graduate Diploma and Graduate Certificate Level</t>
-  </si>
-  <si>
-    <t>Bachelor Degree Level</t>
-  </si>
-  <si>
-    <t>Advanced Diploma and Diploma Level</t>
-  </si>
-  <si>
-    <t>Certificate III &amp; IV Level</t>
-  </si>
-  <si>
-    <t>Secondary Education - Years 10 and above</t>
-  </si>
-  <si>
-    <t>Certificate I &amp; II Level</t>
-  </si>
-  <si>
-    <t>Secondary Education - Years 9 and below</t>
-  </si>
-  <si>
-    <t>Tot</t>
-  </si>
-  <si>
-    <t>Level of Highest Educational Attainment (HEAP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +648,12 @@
       <color rgb="FF000000"/>
       <name val="STIXMathJax_Normal-italic"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="STIXMathJax_Main"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -720,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -728,6 +698,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1760,7 +1731,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1773,7 +1744,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -1805,8 +1776,8 @@
       <c r="B4" s="3">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
@@ -1816,8 +1787,8 @@
       <c r="B5" s="3">
         <v>11.63</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
@@ -1827,8 +1798,8 @@
       <c r="B6" s="3">
         <v>12.27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>60</v>
+      <c r="C6" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
@@ -1838,8 +1809,8 @@
       <c r="B7" s="3">
         <v>12.88</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>61</v>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
@@ -1849,8 +1820,8 @@
       <c r="B8" s="3">
         <v>13.64</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
@@ -1860,8 +1831,8 @@
       <c r="B9" s="3">
         <v>14.64</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>63</v>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
@@ -1871,8 +1842,8 @@
       <c r="B10" s="3">
         <v>15.84</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
@@ -1882,8 +1853,8 @@
       <c r="B11" s="3">
         <v>16.95</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
@@ -1893,8 +1864,8 @@
       <c r="B12" s="3">
         <v>17.82</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
+      <c r="C12" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
@@ -1904,8 +1875,8 @@
       <c r="B13" s="3">
         <v>18.18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
@@ -1915,8 +1886,8 @@
       <c r="B14" s="3">
         <v>19.010000000000002</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
@@ -1926,8 +1897,8 @@
       <c r="B15" s="3">
         <v>20.010000000000002</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>69</v>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
@@ -1938,7 +1909,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
@@ -1949,7 +1920,7 @@
         <v>16.62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
@@ -1973,7 +1944,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1986,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -1997,7 +1968,7 @@
         <v>15.29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -2008,7 +1979,7 @@
         <v>15.53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
@@ -2019,7 +1990,7 @@
         <v>15.26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16">
@@ -2030,7 +2001,7 @@
         <v>16.34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
@@ -2041,7 +2012,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16">
@@ -2052,7 +2023,7 @@
         <v>15.36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16">
@@ -2063,7 +2034,7 @@
         <v>16.14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16">
@@ -2074,7 +2045,7 @@
         <v>15.16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16">
@@ -2085,7 +2056,7 @@
         <v>15.97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
